--- a/Cenas.xlsx
+++ b/Cenas.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -1661,6 +1661,62 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Riga to Trapani-Marsala</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>72.9914May</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Trapani-Marsala to Riga</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>€</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>.3919MaySunday</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
